--- a/biology/Botanique/Lindera_chienii/Lindera_chienii.xlsx
+++ b/biology/Botanique/Lindera_chienii/Lindera_chienii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindera chienii est un petit arbre à feuilles caduques de la famille des Lauracées originaire de Chine.
 Son nom chinois est 江浙山胡椒.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit arbre caduc, pouvant atteindre 5 m de haut, aux feuilles alternes, lancéolées, acuminées, de 5 à 14 cm de long et 1,5 à 4 cm de large. Les inflorescences sont des ombelles axillaires de quatre à douze fleurs jaune-vert. Les fleurs mâles sont formées de tépales elliptiques de 3,5 à 4 mm sur 1 à 1,5 mm, alors que les tépales des fleurs femelles ne mesurent que 1,5 à 1,8 mm sur 0,5 à 1 mm.
 Le fruit est rouge et d'environ 1 cm de diamètre à maturité.
@@ -549,7 +563,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est originaire de Chine : Anhui, Henan, Jiangsu, Zhejiang.
 </t>
